--- a/doors-detector/results/house15_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
+++ b/doors-detector/results/house15_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.8025317004317748</v>
+        <v>0.795016842128802</v>
       </c>
       <c r="F2" t="n">
         <v>1070</v>
       </c>
       <c r="G2" t="n">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="H2" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3269607526076957</v>
+        <v>0.3789114584887671</v>
       </c>
       <c r="F3" t="n">
         <v>59</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4822697111133049</v>
+        <v>0.4570942208214507</v>
       </c>
       <c r="F4" t="n">
         <v>240</v>
       </c>
       <c r="G4" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H4" t="n">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7475409971728665</v>
+        <v>0.7732365888701109</v>
       </c>
       <c r="F5" t="n">
         <v>1070</v>
       </c>
       <c r="G5" t="n">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="H5" t="n">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4205844304182807</v>
+        <v>0.4245345717345971</v>
       </c>
       <c r="F6" t="n">
         <v>59</v>
       </c>
       <c r="G6" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6096070431527041</v>
+        <v>0.6024798177392738</v>
       </c>
       <c r="F7" t="n">
         <v>240</v>
       </c>
       <c r="G7" t="n">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="H7" t="n">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.753742503627018</v>
+        <v>0.8097324264103017</v>
       </c>
       <c r="F8" t="n">
         <v>1070</v>
       </c>
       <c r="G8" t="n">
-        <v>878</v>
+        <v>914</v>
       </c>
       <c r="H8" t="n">
-        <v>192</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.4518072819664889</v>
+        <v>0.5420619579654397</v>
       </c>
       <c r="F9" t="n">
         <v>59</v>
       </c>
       <c r="G9" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H9" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5859096709642797</v>
+        <v>0.6538410967820749</v>
       </c>
       <c r="F10" t="n">
         <v>240</v>
       </c>
       <c r="G10" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H10" t="n">
-        <v>351</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7119412844517472</v>
+        <v>0.813340043908964</v>
       </c>
       <c r="F11" t="n">
         <v>1070</v>
       </c>
       <c r="G11" t="n">
-        <v>847</v>
+        <v>918</v>
       </c>
       <c r="H11" t="n">
-        <v>223</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6199915879280367</v>
+        <v>0.6695381395079566</v>
       </c>
       <c r="F12" t="n">
         <v>59</v>
       </c>
       <c r="G12" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6474621173683307</v>
+        <v>0.6306946747932521</v>
       </c>
       <c r="F13" t="n">
         <v>240</v>
       </c>
       <c r="G13" t="n">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="H13" t="n">
-        <v>386</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7321111355748211</v>
+        <v>0.8240478820049689</v>
       </c>
       <c r="F14" t="n">
         <v>1070</v>
       </c>
       <c r="G14" t="n">
-        <v>858</v>
+        <v>924</v>
       </c>
       <c r="H14" t="n">
-        <v>212</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6242647060237967</v>
+        <v>0.7468003483570093</v>
       </c>
       <c r="F15" t="n">
         <v>59</v>
       </c>
       <c r="G15" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H15" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6403398754860178</v>
+        <v>0.6890451853167033</v>
       </c>
       <c r="F16" t="n">
         <v>240</v>
       </c>
       <c r="G16" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H16" t="n">
-        <v>374</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7798611928247943</v>
+        <v>0.8272388964457621</v>
       </c>
       <c r="F17" t="n">
         <v>1070</v>
       </c>
       <c r="G17" t="n">
-        <v>895</v>
+        <v>922</v>
       </c>
       <c r="H17" t="n">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.6127759757210421</v>
+        <v>0.7284879997784365</v>
       </c>
       <c r="F18" t="n">
         <v>59</v>
       </c>
       <c r="G18" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6594247185943251</v>
+        <v>0.7118758695201307</v>
       </c>
       <c r="F19" t="n">
         <v>240</v>
       </c>
       <c r="G19" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H19" t="n">
-        <v>330</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
